--- a/dgt/SQL/pruebas.xlsx
+++ b/dgt/SQL/pruebas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>LOGIN</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>prueba 5: prueba 1 a prueba 4 --&gt; OK Solucionado error</t>
+  </si>
+  <si>
+    <t>prueba 1: poner multa --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 1: ver multas --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 1: ver multas anuladas --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 1: anular multa --&gt; ok</t>
+  </si>
+  <si>
+    <t>DETALLE MULTA</t>
+  </si>
+  <si>
+    <t>DETALLE  MULTAS ANULADAS</t>
+  </si>
+  <si>
+    <t>prueba 1: detalles multa--&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 1: detalles multa anulada --&gt; ok</t>
   </si>
 </sst>
 </file>
@@ -406,80 +430,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43482</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dgt/SQL/pruebas.xlsx
+++ b/dgt/SQL/pruebas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curso\Desktop\0554_Borja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>LOGIN</t>
   </si>
@@ -84,14 +84,46 @@
   </si>
   <si>
     <t>prueba 1: detalles multa anulada --&gt; ok</t>
+  </si>
+  <si>
+    <t>VISUALIZACION OBJETIVOS</t>
+  </si>
+  <si>
+    <t>prueba 1: visualizacion inicial --&gt;ok</t>
+  </si>
+  <si>
+    <t>prueba 2: funcionamiento combo --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 3 : cambios en BDD (años) --&gt; visualizacion --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 4: cambios en BDD (años y meses) --&gt; visualizacion --&gt; fallo</t>
+  </si>
+  <si>
+    <t>prueba 4: cambios en BDD (años y meses) --&gt; visualizacion --&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba  5: funcionamiento del combo ---&gt; ok</t>
+  </si>
+  <si>
+    <t>prueba 6 : aplicación de formatos ---&gt; ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +566,197 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
